--- a/natmiOut/OldD2/LR-pairs_lrc2p/Wnt4-Fzd6.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Wnt4-Fzd6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.1895841445232</v>
+        <v>1.196205</v>
       </c>
       <c r="H2">
-        <v>1.1895841445232</v>
+        <v>2.39241</v>
       </c>
       <c r="I2">
-        <v>0.1675618823455244</v>
+        <v>0.1612076625294354</v>
       </c>
       <c r="J2">
-        <v>0.1675618823455244</v>
+        <v>0.1197188969614126</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.0021229868675</v>
+        <v>25.081504</v>
       </c>
       <c r="N2">
-        <v>25.0021229868675</v>
+        <v>50.163008</v>
       </c>
       <c r="O2">
-        <v>0.6798889288077312</v>
+        <v>0.670801886161467</v>
       </c>
       <c r="P2">
-        <v>0.6798889288077312</v>
+        <v>0.5799583902495139</v>
       </c>
       <c r="Q2">
-        <v>29.74212908459661</v>
+        <v>30.00262049232</v>
       </c>
       <c r="R2">
-        <v>29.74212908459661</v>
+        <v>120.01048196928</v>
       </c>
       <c r="S2">
-        <v>0.1139234686969057</v>
+        <v>0.1081384040884265</v>
       </c>
       <c r="T2">
-        <v>0.1139234686969057</v>
+        <v>0.06943197876418826</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.1895841445232</v>
+        <v>1.196205</v>
       </c>
       <c r="H3">
-        <v>1.1895841445232</v>
+        <v>2.39241</v>
       </c>
       <c r="I3">
-        <v>0.1675618823455244</v>
+        <v>0.1612076625294354</v>
       </c>
       <c r="J3">
-        <v>0.1675618823455244</v>
+        <v>0.1197188969614126</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>11.231704726118</v>
+        <v>0.3140343333333334</v>
       </c>
       <c r="N3">
-        <v>11.231704726118</v>
+        <v>0.942103</v>
       </c>
       <c r="O3">
-        <v>0.3054265311364204</v>
+        <v>0.008398811455623189</v>
       </c>
       <c r="P3">
-        <v>0.3054265311364204</v>
+        <v>0.01089210079525609</v>
       </c>
       <c r="Q3">
-        <v>13.36105785815626</v>
+        <v>0.375649439705</v>
       </c>
       <c r="R3">
-        <v>13.36105785815626</v>
+        <v>2.25389663823</v>
       </c>
       <c r="S3">
-        <v>0.05117784447548251</v>
+        <v>0.001353952762786459</v>
       </c>
       <c r="T3">
-        <v>0.05117784447548251</v>
+        <v>0.001303990292800584</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.1895841445232</v>
+        <v>1.196205</v>
       </c>
       <c r="H4">
-        <v>1.1895841445232</v>
+        <v>2.39241</v>
       </c>
       <c r="I4">
-        <v>0.1675618823455244</v>
+        <v>0.1612076625294354</v>
       </c>
       <c r="J4">
-        <v>0.1675618823455244</v>
+        <v>0.1197188969614126</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.540006846597337</v>
+        <v>11.39945533333333</v>
       </c>
       <c r="N4">
-        <v>0.540006846597337</v>
+        <v>34.198366</v>
       </c>
       <c r="O4">
-        <v>0.01468454005584842</v>
+        <v>0.3048770974345635</v>
       </c>
       <c r="P4">
-        <v>0.01468454005584842</v>
+        <v>0.3953835721837834</v>
       </c>
       <c r="Q4">
-        <v>0.642383582646164</v>
+        <v>13.63608546701</v>
       </c>
       <c r="R4">
-        <v>0.642383582646164</v>
+        <v>81.81651280206</v>
       </c>
       <c r="S4">
-        <v>0.002460569173136213</v>
+        <v>0.04914852423618491</v>
       </c>
       <c r="T4">
-        <v>0.002460569173136213</v>
+        <v>0.0473348851385056</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8932794239533181</v>
+        <v>1.196205</v>
       </c>
       <c r="H5">
-        <v>0.8932794239533181</v>
+        <v>2.39241</v>
       </c>
       <c r="I5">
-        <v>0.1258251317716891</v>
+        <v>0.1612076625294354</v>
       </c>
       <c r="J5">
-        <v>0.1258251317716891</v>
+        <v>0.1197188969614126</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.0021229868675</v>
+        <v>0.5953364999999999</v>
       </c>
       <c r="N5">
-        <v>25.0021229868675</v>
+        <v>1.190673</v>
       </c>
       <c r="O5">
-        <v>0.6798889288077312</v>
+        <v>0.01592220494834624</v>
       </c>
       <c r="P5">
-        <v>0.6798889288077312</v>
+        <v>0.01376593677144639</v>
       </c>
       <c r="Q5">
-        <v>22.33388201931901</v>
+        <v>0.7121444979824999</v>
       </c>
       <c r="R5">
-        <v>22.33388201931901</v>
+        <v>2.84857799193</v>
       </c>
       <c r="S5">
-        <v>0.08554711405734532</v>
+        <v>0.002566781442037508</v>
       </c>
       <c r="T5">
-        <v>0.08554711405734532</v>
+        <v>0.001648042765918111</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8932794239533181</v>
+        <v>1.046327666666667</v>
       </c>
       <c r="H6">
-        <v>0.8932794239533181</v>
+        <v>3.138983</v>
       </c>
       <c r="I6">
-        <v>0.1258251317716891</v>
+        <v>0.1410093064175552</v>
       </c>
       <c r="J6">
-        <v>0.1258251317716891</v>
+        <v>0.1570782526158249</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.231704726118</v>
+        <v>25.081504</v>
       </c>
       <c r="N6">
-        <v>11.231704726118</v>
+        <v>50.163008</v>
       </c>
       <c r="O6">
-        <v>0.3054265311364204</v>
+        <v>0.670801886161467</v>
       </c>
       <c r="P6">
-        <v>0.3054265311364204</v>
+        <v>0.5799583902495139</v>
       </c>
       <c r="Q6">
-        <v>10.03305072776045</v>
+        <v>26.24347155681067</v>
       </c>
       <c r="R6">
-        <v>10.03305072776045</v>
+        <v>157.460829340864</v>
       </c>
       <c r="S6">
-        <v>0.03843033352680999</v>
+        <v>0.09458930871121626</v>
       </c>
       <c r="T6">
-        <v>0.03843033352680999</v>
+        <v>0.09109885053028033</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8932794239533181</v>
+        <v>1.046327666666667</v>
       </c>
       <c r="H7">
-        <v>0.8932794239533181</v>
+        <v>3.138983</v>
       </c>
       <c r="I7">
-        <v>0.1258251317716891</v>
+        <v>0.1410093064175552</v>
       </c>
       <c r="J7">
-        <v>0.1258251317716891</v>
+        <v>0.1570782526158249</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.540006846597337</v>
+        <v>0.3140343333333334</v>
       </c>
       <c r="N7">
-        <v>0.540006846597337</v>
+        <v>0.942103</v>
       </c>
       <c r="O7">
-        <v>0.01468454005584842</v>
+        <v>0.008398811455623189</v>
       </c>
       <c r="P7">
-        <v>0.01468454005584842</v>
+        <v>0.01089210079525609</v>
       </c>
       <c r="Q7">
-        <v>0.482377004859317</v>
+        <v>0.328582811249889</v>
       </c>
       <c r="R7">
-        <v>0.482377004859317</v>
+        <v>2.957245301249</v>
       </c>
       <c r="S7">
-        <v>0.001847684187533774</v>
+        <v>0.001184310578089243</v>
       </c>
       <c r="T7">
-        <v>0.001847684187533774</v>
+        <v>0.001710912160234264</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.40166893445414</v>
+        <v>1.046327666666667</v>
       </c>
       <c r="H8">
-        <v>1.40166893445414</v>
+        <v>3.138983</v>
       </c>
       <c r="I8">
-        <v>0.1974356216529083</v>
+        <v>0.1410093064175552</v>
       </c>
       <c r="J8">
-        <v>0.1974356216529083</v>
+        <v>0.1570782526158249</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.0021229868675</v>
+        <v>11.39945533333333</v>
       </c>
       <c r="N8">
-        <v>25.0021229868675</v>
+        <v>34.198366</v>
       </c>
       <c r="O8">
-        <v>0.6798889288077312</v>
+        <v>0.3048770974345635</v>
       </c>
       <c r="P8">
-        <v>0.6798889288077312</v>
+        <v>0.3953835721837834</v>
       </c>
       <c r="Q8">
-        <v>35.04469908609393</v>
+        <v>11.92756550019756</v>
       </c>
       <c r="R8">
-        <v>35.04469908609393</v>
+        <v>107.348089501778</v>
       </c>
       <c r="S8">
-        <v>0.1342342933140843</v>
+        <v>0.04299050805184519</v>
       </c>
       <c r="T8">
-        <v>0.1342342933140843</v>
+        <v>0.06210616063163159</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.40166893445414</v>
+        <v>1.046327666666667</v>
       </c>
       <c r="H9">
-        <v>1.40166893445414</v>
+        <v>3.138983</v>
       </c>
       <c r="I9">
-        <v>0.1974356216529083</v>
+        <v>0.1410093064175552</v>
       </c>
       <c r="J9">
-        <v>0.1974356216529083</v>
+        <v>0.1570782526158249</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.231704726118</v>
+        <v>0.5953364999999999</v>
       </c>
       <c r="N9">
-        <v>11.231704726118</v>
+        <v>1.190673</v>
       </c>
       <c r="O9">
-        <v>0.3054265311364204</v>
+        <v>0.01592220494834624</v>
       </c>
       <c r="P9">
-        <v>0.3054265311364204</v>
+        <v>0.01376593677144639</v>
       </c>
       <c r="Q9">
-        <v>15.74313159556135</v>
+        <v>0.6229170509265</v>
       </c>
       <c r="R9">
-        <v>15.74313159556135</v>
+        <v>3.737502305559</v>
       </c>
       <c r="S9">
-        <v>0.06030207704421051</v>
+        <v>0.002245179076404469</v>
       </c>
       <c r="T9">
-        <v>0.06030207704421051</v>
+        <v>0.002162329293678729</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.40166893445414</v>
+        <v>1.404926333333333</v>
       </c>
       <c r="H10">
-        <v>1.40166893445414</v>
+        <v>4.214779</v>
       </c>
       <c r="I10">
-        <v>0.1974356216529083</v>
+        <v>0.189336184201468</v>
       </c>
       <c r="J10">
-        <v>0.1974356216529083</v>
+        <v>0.2109122988183988</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.540006846597337</v>
+        <v>25.081504</v>
       </c>
       <c r="N10">
-        <v>0.540006846597337</v>
+        <v>50.163008</v>
       </c>
       <c r="O10">
-        <v>0.01468454005584842</v>
+        <v>0.670801886161467</v>
       </c>
       <c r="P10">
-        <v>0.01468454005584842</v>
+        <v>0.5799583902495139</v>
       </c>
       <c r="Q10">
-        <v>0.7569108212680296</v>
+        <v>35.23766544920534</v>
       </c>
       <c r="R10">
-        <v>0.7569108212680296</v>
+        <v>211.425992695232</v>
       </c>
       <c r="S10">
-        <v>0.002899251294613465</v>
+        <v>0.1270070694809597</v>
       </c>
       <c r="T10">
-        <v>0.002899251294613465</v>
+        <v>0.122320357306543</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.63679413544864</v>
+        <v>1.404926333333333</v>
       </c>
       <c r="H11">
-        <v>1.63679413544864</v>
+        <v>4.214779</v>
       </c>
       <c r="I11">
-        <v>0.2305547763145564</v>
+        <v>0.189336184201468</v>
       </c>
       <c r="J11">
-        <v>0.2305547763145564</v>
+        <v>0.2109122988183988</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>25.0021229868675</v>
+        <v>0.3140343333333334</v>
       </c>
       <c r="N11">
-        <v>25.0021229868675</v>
+        <v>0.942103</v>
       </c>
       <c r="O11">
-        <v>0.6798889288077312</v>
+        <v>0.008398811455623189</v>
       </c>
       <c r="P11">
-        <v>0.6798889288077312</v>
+        <v>0.01089210079525609</v>
       </c>
       <c r="Q11">
-        <v>40.92332827867036</v>
+        <v>0.4411951044707778</v>
       </c>
       <c r="R11">
-        <v>40.92332827867036</v>
+        <v>3.970755940237</v>
       </c>
       <c r="S11">
-        <v>0.1567516399000098</v>
+        <v>0.001590198912835272</v>
       </c>
       <c r="T11">
-        <v>0.1567516399000098</v>
+        <v>0.002297278017689173</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.63679413544864</v>
+        <v>1.404926333333333</v>
       </c>
       <c r="H12">
-        <v>1.63679413544864</v>
+        <v>4.214779</v>
       </c>
       <c r="I12">
-        <v>0.2305547763145564</v>
+        <v>0.189336184201468</v>
       </c>
       <c r="J12">
-        <v>0.2305547763145564</v>
+        <v>0.2109122988183988</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.231704726118</v>
+        <v>11.39945533333333</v>
       </c>
       <c r="N12">
-        <v>11.231704726118</v>
+        <v>34.198366</v>
       </c>
       <c r="O12">
-        <v>0.3054265311364204</v>
+        <v>0.3048770974345635</v>
       </c>
       <c r="P12">
-        <v>0.3054265311364204</v>
+        <v>0.3953835721837834</v>
       </c>
       <c r="Q12">
-        <v>18.38398842680072</v>
+        <v>16.01539498345711</v>
       </c>
       <c r="R12">
-        <v>18.38398842680072</v>
+        <v>144.138554851114</v>
       </c>
       <c r="S12">
-        <v>0.07041754556668829</v>
+        <v>0.05772426627867943</v>
       </c>
       <c r="T12">
-        <v>0.07041754556668829</v>
+        <v>0.08339125812431211</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.63679413544864</v>
+        <v>1.404926333333333</v>
       </c>
       <c r="H13">
-        <v>1.63679413544864</v>
+        <v>4.214779</v>
       </c>
       <c r="I13">
-        <v>0.2305547763145564</v>
+        <v>0.189336184201468</v>
       </c>
       <c r="J13">
-        <v>0.2305547763145564</v>
+        <v>0.2109122988183988</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.540006846597337</v>
+        <v>0.5953364999999999</v>
       </c>
       <c r="N13">
-        <v>0.540006846597337</v>
+        <v>1.190673</v>
       </c>
       <c r="O13">
-        <v>0.01468454005584842</v>
+        <v>0.01592220494834624</v>
       </c>
       <c r="P13">
-        <v>0.01468454005584842</v>
+        <v>0.01376593677144639</v>
       </c>
       <c r="Q13">
-        <v>0.8838800396126345</v>
+        <v>0.8364039260444999</v>
       </c>
       <c r="R13">
-        <v>0.8838800396126345</v>
+        <v>5.018423556267</v>
       </c>
       <c r="S13">
-        <v>0.003385590847858275</v>
+        <v>0.00301464952899361</v>
       </c>
       <c r="T13">
-        <v>0.003385590847858275</v>
+        <v>0.002903405369854486</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.90161310615983</v>
+        <v>1.669341</v>
       </c>
       <c r="H14">
-        <v>0.90161310615983</v>
+        <v>5.008023</v>
       </c>
       <c r="I14">
-        <v>0.1269989936492381</v>
+        <v>0.22497026895436</v>
       </c>
       <c r="J14">
-        <v>0.1269989936492381</v>
+        <v>0.2506071239952117</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.0021229868675</v>
+        <v>25.081504</v>
       </c>
       <c r="N14">
-        <v>25.0021229868675</v>
+        <v>50.163008</v>
       </c>
       <c r="O14">
-        <v>0.6798889288077312</v>
+        <v>0.670801886161467</v>
       </c>
       <c r="P14">
-        <v>0.6798889288077312</v>
+        <v>0.5799583902495139</v>
       </c>
       <c r="Q14">
-        <v>22.5422417667797</v>
+        <v>41.869582968864</v>
       </c>
       <c r="R14">
-        <v>22.5422417667797</v>
+        <v>251.217497813184</v>
       </c>
       <c r="S14">
-        <v>0.08634520975184035</v>
+        <v>0.1509104807448372</v>
       </c>
       <c r="T14">
-        <v>0.08634520975184035</v>
+        <v>0.1453417042173233</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,184 +1340,184 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.90161310615983</v>
+        <v>1.669341</v>
       </c>
       <c r="H15">
-        <v>0.90161310615983</v>
+        <v>5.008023</v>
       </c>
       <c r="I15">
-        <v>0.1269989936492381</v>
+        <v>0.22497026895436</v>
       </c>
       <c r="J15">
-        <v>0.1269989936492381</v>
+        <v>0.2506071239952117</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>11.231704726118</v>
+        <v>0.3140343333333334</v>
       </c>
       <c r="N15">
-        <v>11.231704726118</v>
+        <v>0.942103</v>
       </c>
       <c r="O15">
-        <v>0.3054265311364204</v>
+        <v>0.008398811455623189</v>
       </c>
       <c r="P15">
-        <v>0.3054265311364204</v>
+        <v>0.01089210079525609</v>
       </c>
       <c r="Q15">
-        <v>10.12665218558529</v>
+        <v>0.5242303880410001</v>
       </c>
       <c r="R15">
-        <v>10.12665218558529</v>
+        <v>4.718073492369</v>
       </c>
       <c r="S15">
-        <v>0.03878886208810307</v>
+        <v>0.001889482872068509</v>
       </c>
       <c r="T15">
-        <v>0.03878886208810307</v>
+        <v>0.002729638054565088</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.90161310615983</v>
+        <v>1.669341</v>
       </c>
       <c r="H16">
-        <v>0.90161310615983</v>
+        <v>5.008023</v>
       </c>
       <c r="I16">
-        <v>0.1269989936492381</v>
+        <v>0.22497026895436</v>
       </c>
       <c r="J16">
-        <v>0.1269989936492381</v>
+        <v>0.2506071239952117</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.540006846597337</v>
+        <v>11.39945533333333</v>
       </c>
       <c r="N16">
-        <v>0.540006846597337</v>
+        <v>34.198366</v>
       </c>
       <c r="O16">
-        <v>0.01468454005584842</v>
+        <v>0.3048770974345635</v>
       </c>
       <c r="P16">
-        <v>0.01468454005584842</v>
+        <v>0.3953835721837834</v>
       </c>
       <c r="Q16">
-        <v>0.4868772503081998</v>
+        <v>19.029578165602</v>
       </c>
       <c r="R16">
-        <v>0.4868772503081998</v>
+        <v>171.266203490418</v>
       </c>
       <c r="S16">
-        <v>0.001864921809294675</v>
+        <v>0.06858828260787837</v>
       </c>
       <c r="T16">
-        <v>0.001864921809294675</v>
+        <v>0.09908593989993114</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.0764323075735</v>
+        <v>1.669341</v>
       </c>
       <c r="H17">
-        <v>1.0764323075735</v>
+        <v>5.008023</v>
       </c>
       <c r="I17">
-        <v>0.1516235942660838</v>
+        <v>0.22497026895436</v>
       </c>
       <c r="J17">
-        <v>0.1516235942660838</v>
+        <v>0.2506071239952117</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.0021229868675</v>
+        <v>0.5953364999999999</v>
       </c>
       <c r="N17">
-        <v>25.0021229868675</v>
+        <v>1.190673</v>
       </c>
       <c r="O17">
-        <v>0.6798889288077312</v>
+        <v>0.01592220494834624</v>
       </c>
       <c r="P17">
-        <v>0.6798889288077312</v>
+        <v>0.01376593677144639</v>
       </c>
       <c r="Q17">
-        <v>26.91309294099024</v>
+        <v>0.9938196282464998</v>
       </c>
       <c r="R17">
-        <v>26.91309294099024</v>
+        <v>5.962917769478999</v>
       </c>
       <c r="S17">
-        <v>0.1030872030875458</v>
+        <v>0.003582022729575897</v>
       </c>
       <c r="T17">
-        <v>0.1030872030875458</v>
+        <v>0.003449841823392109</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.0764323075735</v>
+        <v>1.022419333333333</v>
       </c>
       <c r="H18">
-        <v>1.0764323075735</v>
+        <v>3.067258</v>
       </c>
       <c r="I18">
-        <v>0.1516235942660838</v>
+        <v>0.1377872779762418</v>
       </c>
       <c r="J18">
-        <v>0.1516235942660838</v>
+        <v>0.153489052652375</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.231704726118</v>
+        <v>25.081504</v>
       </c>
       <c r="N18">
-        <v>11.231704726118</v>
+        <v>50.163008</v>
       </c>
       <c r="O18">
-        <v>0.3054265311364204</v>
+        <v>0.670801886161467</v>
       </c>
       <c r="P18">
-        <v>0.3054265311364204</v>
+        <v>0.5799583902495139</v>
       </c>
       <c r="Q18">
-        <v>12.09016983631938</v>
+        <v>25.64381459867734</v>
       </c>
       <c r="R18">
-        <v>12.09016983631938</v>
+        <v>153.862887592064</v>
       </c>
       <c r="S18">
-        <v>0.04630986843512602</v>
+        <v>0.09242796595551737</v>
       </c>
       <c r="T18">
-        <v>0.04630986843512602</v>
+        <v>0.08901726389719428</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.022419333333333</v>
+      </c>
+      <c r="H19">
+        <v>3.067258</v>
+      </c>
+      <c r="I19">
+        <v>0.1377872779762418</v>
+      </c>
+      <c r="J19">
+        <v>0.153489052652375</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.3140343333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.942103</v>
+      </c>
+      <c r="O19">
+        <v>0.008398811455623189</v>
+      </c>
+      <c r="P19">
+        <v>0.01089210079525609</v>
+      </c>
+      <c r="Q19">
+        <v>0.3210747737304445</v>
+      </c>
+      <c r="R19">
+        <v>2.889672963574</v>
+      </c>
+      <c r="S19">
+        <v>0.001157249368705997</v>
+      </c>
+      <c r="T19">
+        <v>0.001671818232458038</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.022419333333333</v>
+      </c>
+      <c r="H20">
+        <v>3.067258</v>
+      </c>
+      <c r="I20">
+        <v>0.1377872779762418</v>
+      </c>
+      <c r="J20">
+        <v>0.153489052652375</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>11.39945533333333</v>
+      </c>
+      <c r="N20">
+        <v>34.198366</v>
+      </c>
+      <c r="O20">
+        <v>0.3048770974345635</v>
+      </c>
+      <c r="P20">
+        <v>0.3953835721837834</v>
+      </c>
+      <c r="Q20">
+        <v>11.65502352226978</v>
+      </c>
+      <c r="R20">
+        <v>104.895211700428</v>
+      </c>
+      <c r="S20">
+        <v>0.04200818537280596</v>
+      </c>
+      <c r="T20">
+        <v>0.06068704992880084</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.022419333333333</v>
+      </c>
+      <c r="H21">
+        <v>3.067258</v>
+      </c>
+      <c r="I21">
+        <v>0.1377872779762418</v>
+      </c>
+      <c r="J21">
+        <v>0.153489052652375</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5953364999999999</v>
+      </c>
+      <c r="N21">
+        <v>1.190673</v>
+      </c>
+      <c r="O21">
+        <v>0.01592220494834624</v>
+      </c>
+      <c r="P21">
+        <v>0.01376593677144639</v>
+      </c>
+      <c r="Q21">
+        <v>0.608683547439</v>
+      </c>
+      <c r="R21">
+        <v>3.652101284634</v>
+      </c>
+      <c r="S21">
+        <v>0.002193877279212477</v>
+      </c>
+      <c r="T21">
+        <v>0.0021129205939218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.0764323075735</v>
-      </c>
-      <c r="H19">
-        <v>1.0764323075735</v>
-      </c>
-      <c r="I19">
-        <v>0.1516235942660838</v>
-      </c>
-      <c r="J19">
-        <v>0.1516235942660838</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.540006846597337</v>
-      </c>
-      <c r="N19">
-        <v>0.540006846597337</v>
-      </c>
-      <c r="O19">
-        <v>0.01468454005584842</v>
-      </c>
-      <c r="P19">
-        <v>0.01468454005584842</v>
-      </c>
-      <c r="Q19">
-        <v>0.5812808159882605</v>
-      </c>
-      <c r="R19">
-        <v>0.5812808159882605</v>
-      </c>
-      <c r="S19">
-        <v>0.002226522743412016</v>
-      </c>
-      <c r="T19">
-        <v>0.002226522743412016</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.0810545</v>
+      </c>
+      <c r="H22">
+        <v>2.162109</v>
+      </c>
+      <c r="I22">
+        <v>0.1456892999209396</v>
+      </c>
+      <c r="J22">
+        <v>0.108194374956777</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>25.081504</v>
+      </c>
+      <c r="N22">
+        <v>50.163008</v>
+      </c>
+      <c r="O22">
+        <v>0.670801886161467</v>
+      </c>
+      <c r="P22">
+        <v>0.5799583902495139</v>
+      </c>
+      <c r="Q22">
+        <v>27.114472765968</v>
+      </c>
+      <c r="R22">
+        <v>108.457891063872</v>
+      </c>
+      <c r="S22">
+        <v>0.09772865718050994</v>
+      </c>
+      <c r="T22">
+        <v>0.0627482355339847</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.0810545</v>
+      </c>
+      <c r="H23">
+        <v>2.162109</v>
+      </c>
+      <c r="I23">
+        <v>0.1456892999209396</v>
+      </c>
+      <c r="J23">
+        <v>0.108194374956777</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.3140343333333334</v>
+      </c>
+      <c r="N23">
+        <v>0.942103</v>
+      </c>
+      <c r="O23">
+        <v>0.008398811455623189</v>
+      </c>
+      <c r="P23">
+        <v>0.01089210079525609</v>
+      </c>
+      <c r="Q23">
+        <v>0.3394882292045001</v>
+      </c>
+      <c r="R23">
+        <v>2.036929375227</v>
+      </c>
+      <c r="S23">
+        <v>0.00122361696113771</v>
+      </c>
+      <c r="T23">
+        <v>0.001178464037508947</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.0810545</v>
+      </c>
+      <c r="H24">
+        <v>2.162109</v>
+      </c>
+      <c r="I24">
+        <v>0.1456892999209396</v>
+      </c>
+      <c r="J24">
+        <v>0.108194374956777</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>11.39945533333333</v>
+      </c>
+      <c r="N24">
+        <v>34.198366</v>
+      </c>
+      <c r="O24">
+        <v>0.3048770974345635</v>
+      </c>
+      <c r="P24">
+        <v>0.3953835721837834</v>
+      </c>
+      <c r="Q24">
+        <v>12.323432485649</v>
+      </c>
+      <c r="R24">
+        <v>73.940594913894</v>
+      </c>
+      <c r="S24">
+        <v>0.04441733088716964</v>
+      </c>
+      <c r="T24">
+        <v>0.04277827846060216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.0810545</v>
+      </c>
+      <c r="H25">
+        <v>2.162109</v>
+      </c>
+      <c r="I25">
+        <v>0.1456892999209396</v>
+      </c>
+      <c r="J25">
+        <v>0.108194374956777</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.5953364999999999</v>
+      </c>
+      <c r="N25">
+        <v>1.190673</v>
+      </c>
+      <c r="O25">
+        <v>0.01592220494834624</v>
+      </c>
+      <c r="P25">
+        <v>0.01376593677144639</v>
+      </c>
+      <c r="Q25">
+        <v>0.6435912023392499</v>
+      </c>
+      <c r="R25">
+        <v>2.574364809357</v>
+      </c>
+      <c r="S25">
+        <v>0.002319694892122285</v>
+      </c>
+      <c r="T25">
+        <v>0.001489396924681155</v>
       </c>
     </row>
   </sheetData>
